--- a/testData/data.xlsx
+++ b/testData/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="116">
   <si>
     <t>Bike Name</t>
   </si>
@@ -272,6 +272,96 @@
   </si>
   <si>
     <t>QTbgz@xyz</t>
+  </si>
+  <si>
+    <t>NzlLq@gmail.com</t>
+  </si>
+  <si>
+    <t>sykPd@xyz</t>
+  </si>
+  <si>
+    <t>fxUrl@gmail.com</t>
+  </si>
+  <si>
+    <t>GuDNh@xyz</t>
+  </si>
+  <si>
+    <t>ISCCE@gmail.com</t>
+  </si>
+  <si>
+    <t>gvAlk@xyz</t>
+  </si>
+  <si>
+    <t>jdCwh@gmail.com</t>
+  </si>
+  <si>
+    <t>bUvtq@xyz</t>
+  </si>
+  <si>
+    <t>OewOc@gmail.com</t>
+  </si>
+  <si>
+    <t>CUIZC@xyz</t>
+  </si>
+  <si>
+    <t>EMhrZ@gmail.com</t>
+  </si>
+  <si>
+    <t>tnlSP@xyz</t>
+  </si>
+  <si>
+    <t>RmhKX@gmail.com</t>
+  </si>
+  <si>
+    <t>VTTLu@xyz</t>
+  </si>
+  <si>
+    <t>gjqjG@gmail.com</t>
+  </si>
+  <si>
+    <t>szweW@xyz</t>
+  </si>
+  <si>
+    <t>kiEiE@gmail.com</t>
+  </si>
+  <si>
+    <t>dGXPN@xyz</t>
+  </si>
+  <si>
+    <t>XvwqV@gmail.com</t>
+  </si>
+  <si>
+    <t>xzhhl@xyz</t>
+  </si>
+  <si>
+    <t>Kicor@gmail.com</t>
+  </si>
+  <si>
+    <t>BsKdR@xyz</t>
+  </si>
+  <si>
+    <t>RsIVW@gmail.com</t>
+  </si>
+  <si>
+    <t>ufxEm@xyz</t>
+  </si>
+  <si>
+    <t>zPtCH@gmail.com</t>
+  </si>
+  <si>
+    <t>ykZNp@xyz</t>
+  </si>
+  <si>
+    <t>stNWg@gmail.com</t>
+  </si>
+  <si>
+    <t>nQycw@xyz</t>
+  </si>
+  <si>
+    <t>eBMSm@gmail.com</t>
+  </si>
+  <si>
+    <t>saqwW@xyz</t>
   </si>
 </sst>
 </file>
@@ -418,7 +508,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -507,7 +597,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>38</v>
@@ -515,7 +605,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>39</v>

--- a/testData/data.xlsx
+++ b/testData/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1660" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="122">
   <si>
     <t>Bike Name</t>
   </si>
@@ -362,6 +362,24 @@
   </si>
   <si>
     <t>saqwW@xyz</t>
+  </si>
+  <si>
+    <t>PSxvg@gmail.com</t>
+  </si>
+  <si>
+    <t>LLQaN@xyz</t>
+  </si>
+  <si>
+    <t>TIaET@gmail.com</t>
+  </si>
+  <si>
+    <t>mNjoT@xyz</t>
+  </si>
+  <si>
+    <t>qIiDw@gmail.com</t>
+  </si>
+  <si>
+    <t>llJNP@xyz</t>
   </si>
 </sst>
 </file>
@@ -597,7 +615,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>38</v>
@@ -605,7 +623,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>39</v>

--- a/testData/data.xlsx
+++ b/testData/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="124">
   <si>
     <t>Bike Name</t>
   </si>
@@ -380,6 +380,12 @@
   </si>
   <si>
     <t>llJNP@xyz</t>
+  </si>
+  <si>
+    <t>MSucQ@gmail.com</t>
+  </si>
+  <si>
+    <t>uHOZL@xyz</t>
   </si>
 </sst>
 </file>
@@ -615,7 +621,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>38</v>
@@ -623,7 +629,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>39</v>
